--- a/biology/Zoologie/Aristeidae/Aristeidae.xlsx
+++ b/biology/Zoologie/Aristeidae/Aristeidae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Aristeidae sont une famille de crustacés décapodes dont les représentants ressemblent à des crevettes.
 Cette famille de crustacés correspond aux grandes crevettes usuellement désignées sous le nom de gambas (terme espagnol passé en français, équivalent de l'anglais prawn). Cette famille taxonomique a été introduite par James Wood-Mason (1846-1893) en 1891.
@@ -512,10 +524,12 @@
           <t>Description et caractéristiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce sont des crustacés d'eaux profondes, munis d'un rostre effilé. Leur corps est lisse, parfois mou. Les 5 premières paires de pattes périopodes sont allongées, les 3 premières munies de pinces (la 3e étant la plus longue)[2]. 
-Deux espèces démersales, Aristeus antennatus et Aristaeomorpha foliacea, font l'objet d'une pêche commerciale importante, sous le nom de « gambas »[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce sont des crustacés d'eaux profondes, munis d'un rostre effilé. Leur corps est lisse, parfois mou. Les 5 premières paires de pattes périopodes sont allongées, les 3 premières munies de pinces (la 3e étant la plus longue). 
+Deux espèces démersales, Aristeus antennatus et Aristaeomorpha foliacea, font l'objet d'une pêche commerciale importante, sous le nom de « gambas ».
 </t>
         </is>
       </c>
@@ -544,9 +558,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon World Register of Marine Species                               (1 avril 2015)[3] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon World Register of Marine Species                               (1 avril 2015) :
 genre Aristaeomorpha Wood-Mason in Wood-Mason &amp; Alcock, 1891 -- 2 espèces
 genre Aristaeopsis Wood-Mason in Wood-Mason &amp; Alcock, 1891 -- 1 espèce
 genre Aristeus Duvernoy, 1840 -- 8 espèces
